--- a/Inventory PCB.xlsx
+++ b/Inventory PCB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Amount</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t xml:space="preserve">market for capacitor, for surface-mounting</t>
+  </si>
+  <si>
+    <t>something</t>
   </si>
   <si>
     <t xml:space="preserve">diode, glass-, for surface-mounting</t>
@@ -1987,7 +1990,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2028,6 +2031,9 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -2037,10 +2043,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -2057,10 +2063,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2077,10 +2083,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -2097,10 +2103,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -2114,13 +2120,13 @@
         <v>0.23225000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -2134,13 +2140,13 @@
         <v>0.23225000000000001</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -2157,10 +2163,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -2177,10 +2183,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -2197,10 +2203,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
